--- a/templates/dataplant/Extraction_GEO_minimal.xlsx
+++ b/templates/dataplant/Extraction_GEO_minimal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B736AD-AD83-4945-9400-0C6E81B55FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709049F-4D93-472B-ACC7-DDD6D1019E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2880" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2EXT01_RNA" sheetId="1" r:id="rId1"/>
+    <sheet name="Extraction" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -256,9 +256,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>annotationTableGoodDingo21</t>
-  </si>
-  <si>
     <t>GEO</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t xml:space="preserve">Describe the applied parameters for RNA extraction </t>
+  </si>
+  <si>
+    <t>annotationTableGoodDingo20</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,12 +511,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -694,12 +688,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
@@ -741,6 +729,12 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -766,25 +760,25 @@
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{DF71AA61-E923-4AAC-A8BA-9D46DCD4BAC1}" name="Source Name"/>
     <tableColumn id="23" xr3:uid="{CD689990-1D45-4ABA-9ADC-9281A50B9B85}" name="Protocol Type"/>
-    <tableColumn id="24" xr3:uid="{68B8709C-1653-432E-9263-0ED2294036FD}" name="Term Source REF (DPBO:1000161)" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{70F004A9-2ED1-432C-9D48-814BE33A8577}" name="Term Accession Number (DPBO:1000161)" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{68B8709C-1653-432E-9263-0ED2294036FD}" name="Term Source REF (DPBO:1000161)" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{70F004A9-2ED1-432C-9D48-814BE33A8577}" name="Term Accession Number (DPBO:1000161)" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{17F12197-5A6B-46DB-84FA-86D856A5419D}" name="Parameter [Bio entity]"/>
     <tableColumn id="4" xr3:uid="{044F2A2D-417B-41FA-92AE-BB4B1D633855}" name="Term Source REF (NFDI4PSO:0000012)"/>
     <tableColumn id="5" xr3:uid="{AAF6B443-6DC8-4D9D-A569-3B18A6D8FB63}" name="Term Accession Number (NFDI4PSO:0000012)"/>
-    <tableColumn id="6" xr3:uid="{050A7623-C9D9-4D33-800C-74FC5AA0EBD1}" name="Parameter [Biosource amount]" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{65C787A8-736C-40DB-96A5-25DAA92794FB}" name="Unit" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{8E837113-D409-44C6-864F-8A02D277F170}" name="Term Source REF (NFDI4PSO:0000013)" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{F35F7D67-84F8-4E4F-8751-70B46C365E73}" name="Term Accession Number (NFDI4PSO:0000013)" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [Extraction method]" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (NFDI4PSO:0000054)" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (NFDI4PSO:0000054)" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [Extraction buffer]" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (NFDI4PSO:0000050)" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (NFDI4PSO:0000050)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [Extraction buffer volume]" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (NFDI4PSO:0000051)" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (NFDI4PSO:0000051)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{050A7623-C9D9-4D33-800C-74FC5AA0EBD1}" name="Parameter [Biosource amount]" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{65C787A8-736C-40DB-96A5-25DAA92794FB}" name="Unit" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{8E837113-D409-44C6-864F-8A02D277F170}" name="Term Source REF (NFDI4PSO:0000013)" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{F35F7D67-84F8-4E4F-8751-70B46C365E73}" name="Term Accession Number (NFDI4PSO:0000013)" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [Extraction method]" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (NFDI4PSO:0000054)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (NFDI4PSO:0000054)" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [Extraction buffer]" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (NFDI4PSO:0000050)" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (NFDI4PSO:0000050)" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [Extraction buffer volume]" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (NFDI4PSO:0000051)" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (NFDI4PSO:0000051)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{856D9BE2-BD31-4969-93B3-60D776C90AFE}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1122,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1224,139 +1218,139 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R2" s="2">
         <v>200</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" t="s">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1366,32 +1360,32 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1401,13 +1395,13 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1422,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEA034A-A788-4F64-B4C6-B449FB9D6D64}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1432,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,7 +1456,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1500,7 +1494,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,7 +1502,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,7 +1548,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1556,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1570,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,30 +1596,30 @@
         <v>41</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="11"/>
     </row>
@@ -1661,40 +1655,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1702,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1718,7 +1712,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1726,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -1742,41 +1736,41 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="L4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1784,33 +1778,33 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1818,35 +1812,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="L6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1854,33 +1848,33 @@
         <v>9</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="L7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,33 +1882,33 @@
         <v>12</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="L8" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1922,35 +1916,35 @@
         <v>15</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="L9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
